--- a/Industry/201612-201908/HKD/MILLION/Analysis_120_29.1 - Complete Watches (SITC 885.3-4)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_120_29.1 - Complete Watches (SITC 885.3-4)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="384" yWindow="384"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -25025,6 +25026,389 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="n">
+        <v>45298.642</v>
+      </c>
+      <c r="C2" t="n">
+        <v>44042.846</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.772</v>
+      </c>
+      <c r="E2" t="n">
+        <v>28744.303</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44511.88</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28744.095</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31370.975</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30069.358</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.149</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18494.553</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28924.535</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-3.807</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18057.917</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2.361</v>
+      </c>
+      <c r="J3" t="n">
+        <v>69.254</v>
+      </c>
+      <c r="K3" t="n">
+        <v>68.273</v>
+      </c>
+      <c r="L3" t="n">
+        <v>64.342</v>
+      </c>
+      <c r="M3" t="n">
+        <v>64.982</v>
+      </c>
+      <c r="N3" t="n">
+        <v>62.823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8574.366</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8150.458</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.944</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5985.051</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9026.578</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.749</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6238.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.241</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.506</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20.822</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.279</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21.705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4198.344</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4614.775</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.919</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3334.666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5254.313</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.858</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3541.362</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.198</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.268000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.478</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11.601</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11.804</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1051.674</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1052.528</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="E6" t="n">
+        <v>871.1660000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1197.794</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.802</v>
+      </c>
+      <c r="H6" t="n">
+        <v>847.554</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2.71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.691</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" t="n">
+        <v>83.803</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77.175</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54.613</v>
+      </c>
+      <c r="F7" t="n">
+        <v>96.40600000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24.919</v>
+      </c>
+      <c r="H7" t="n">
+        <v>49.125</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19.479</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78.55200000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>303.272</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.255</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.254</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-84.40000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.257999999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>117.581</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>213</v>
       </c>
       <c r="K1" s="2" t="s">
